--- a/project/doc/TMS排期.xlsx
+++ b/project/doc/TMS排期.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sylph\Desktop\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\workspace-self\home\project\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100010_{405E92EC-0E8F-484D-A78A-030A69D77A4B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D1F40BC8-6536-4782-AB4A-1C44C1FD89BE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -587,6 +587,28 @@
   </cellStyles>
   <dxfs count="24">
     <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -620,315 +642,6 @@
         </top>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="2" tint="-0.89989928891872917"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0_);[Red]\(#,##0\)"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="3" tint="0.59996337778862885"/>
-        </top>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="2" tint="-0.89992980742820516"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="3" tint="0.59996337778862885"/>
-        </top>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="2" tint="-0.89992980742820516"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="3" tint="0.59996337778862885"/>
-        </top>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="2" tint="-0.89989928891872917"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="3" tint="0.59996337778862885"/>
-        </top>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="2" tint="-0.89989928891872917"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="3" tint="0.59996337778862885"/>
-        </top>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="2" tint="-0.89989928891872917"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="3" tint="0.59996337778862885"/>
-        </top>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="2" tint="-0.89989928891872917"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="3" tint="0.59996337778862885"/>
-        </top>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="2" tint="-0.89992980742820516"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="3" tint="0.59996337778862885"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="2" tint="-0.89989928891872917"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="3" tint="0.59996337778862885"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="9"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -987,6 +700,36 @@
       </font>
       <numFmt numFmtId="177" formatCode="#,##0_);[Red]\(#,##0\)"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="3" tint="0.59996337778862885"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89989928891872917"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0_);[Red]\(#,##0\)"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -997,6 +740,36 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89992980742820516"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="3" tint="0.59996337778862885"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1041,14 +814,44 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="2" tint="-0.89989928891872917"/>
+        <color theme="2" tint="-0.89992980742820516"/>
         <name val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="3" tint="0.59996337778862885"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89992980742820516"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1059,6 +862,36 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89989928891872917"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="3" tint="0.59996337778862885"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1111,6 +944,36 @@
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="3" tint="0.59996337778862885"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89989928891872917"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1121,6 +984,143 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89989928891872917"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="3" tint="0.59996337778862885"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89989928891872917"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="3" tint="0.59996337778862885"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89989928891872917"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="3" tint="0.59996337778862885"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89989928891872917"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="3" tint="0.59996337778862885"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="9"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1250,20 +1250,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="项目跟踪器" displayName="项目跟踪器" ref="B2:I25" totalsRowCount="1" headerRowDxfId="11" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="项目跟踪器" displayName="项目跟踪器" ref="B2:I25" totalsRowCount="1" headerRowDxfId="21" tableBorderDxfId="20">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="模块" dataDxfId="21" totalsRowDxfId="7" dataCellStyle="文本" totalsRowCellStyle="文本"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="类别" dataDxfId="20" totalsRowDxfId="6" dataCellStyle="文本" totalsRowCellStyle="文本"/>
-    <tableColumn id="15" xr3:uid="{F4F4E748-A516-4B94-A903-3B51AA6C75F3}" name="子模块" dataDxfId="9" totalsRowDxfId="5" dataCellStyle="文本" totalsRowCellStyle="文本"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="责任人" dataDxfId="19" totalsRowDxfId="4" dataCellStyle="文本" totalsRowCellStyle="文本"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="预计开始时间" dataDxfId="18" totalsRowDxfId="3" dataCellStyle="日期" totalsRowCellStyle="日期"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="预计完成时间" dataDxfId="8" totalsRowDxfId="2" dataCellStyle="日期" totalsRowCellStyle="日期">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="模块" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="文本" totalsRowCellStyle="文本"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="类别" dataDxfId="17" totalsRowDxfId="16" dataCellStyle="文本" totalsRowCellStyle="文本"/>
+    <tableColumn id="15" xr3:uid="{F4F4E748-A516-4B94-A903-3B51AA6C75F3}" name="子模块" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="文本" totalsRowCellStyle="文本"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="责任人" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="文本" totalsRowCellStyle="文本"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="预计开始时间" dataDxfId="11" totalsRowDxfId="10" dataCellStyle="日期" totalsRowCellStyle="日期"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="预计完成时间" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="日期" totalsRowCellStyle="日期">
       <calculatedColumnFormula>WORKDAY(项目跟踪器[[#This Row],[预计开始时间]],项目跟踪器[[#This Row],[预计工期(天)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="预计工时(小时)" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="1" dataCellStyle="编号" totalsRowCellStyle="编号">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="预计工时(小时)" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="编号" totalsRowCellStyle="编号">
       <totalsRowFormula>SUM(项目跟踪器[预计工时(小时)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="预计工期(天)" dataDxfId="16" totalsRowDxfId="0" dataCellStyle="估计工期" totalsRowCellStyle="估计工期">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="预计工期(天)" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="估计工期" totalsRowCellStyle="估计工期">
       <calculatedColumnFormula>IF(COUNTA(项目跟踪器!$F3,项目跟踪器!$G3)&lt;&gt;2,"",DAYS360(项目跟踪器!$F3,项目跟踪器!$G3,FALSE))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1272,11 +1272,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="CategoryAndEmployeeTable" displayName="CategoryAndEmployeeTable" ref="B4:C10" totalsRowShown="0" headerRowDxfId="10" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="CategoryAndEmployeeTable" displayName="CategoryAndEmployeeTable" ref="B4:C10" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="B4:C10" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="类别名称" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="员工姓名" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="类别名称" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="员工姓名" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="自定义表格样式" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1516,11 +1516,11 @@
   <dimension ref="B1:I25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.625" style="4" customWidth="1"/>
     <col min="2" max="2" width="22.625" style="4" customWidth="1"/>
@@ -1535,14 +1535,14 @@
     <col min="11" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:9" ht="31.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="16" t="s">
         <v>10</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="12" t="s">
         <v>11</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="12" t="s">
         <v>11</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="12" t="s">
         <v>16</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="12" t="s">
         <v>16</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="12" t="s">
         <v>16</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="12" t="s">
         <v>16</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="12" t="s">
         <v>16</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="12" t="s">
         <v>16</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="12" t="s">
         <v>16</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="12" t="s">
         <v>16</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="12" t="s">
         <v>16</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="12" t="s">
         <v>16</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="12" t="s">
         <v>16</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="12" t="s">
         <v>16</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="12" t="s">
         <v>16</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="12" t="s">
         <v>16</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="12" t="s">
         <v>16</v>
       </c>
@@ -2081,7 +2081,7 @@
       <c r="H23" s="14"/>
       <c r="I23" s="15"/>
     </row>
-    <row r="24" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="12" t="s">
         <v>16</v>
       </c>
@@ -2095,7 +2095,7 @@
       <c r="H24" s="14"/>
       <c r="I24" s="15"/>
     </row>
-    <row r="25" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
@@ -2151,7 +2151,7 @@
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
     <col min="2" max="3" width="25.625" style="1" customWidth="1"/>
@@ -2159,14 +2159,14 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:3" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="2:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="2:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
@@ -2174,27 +2174,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="20"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="20"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
